--- a/public/gifts_first_formal.xlsx
+++ b/public/gifts_first_formal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenliao\AMC_app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B004D7DA-2483-40A1-8D11-1D1E2E172A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D4A852-D13C-4110-8CE3-6257FE29E4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,19 +41,10 @@
     <t>舒暢淨</t>
   </si>
   <si>
-    <t>合生元－美妍版</t>
-  </si>
-  <si>
-    <t>植物性蛋白飲-TWK10益生菌添加</t>
-  </si>
-  <si>
-    <t>養心齋 活氣靈芝多醣體</t>
-  </si>
-  <si>
     <t>微生態養髮噴霧</t>
   </si>
   <si>
-    <t>賢者之食桌 纖維試用包</t>
+    <t>合生元-美妍版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -65,6 +56,28 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>葡萄王康普茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_450mL</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>極品莊園咖啡</t>
     </r>
     <r>
@@ -74,7 +87,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -89,6 +102,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>賢者之食桌_纖維試用包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -97,7 +114,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>葡萄王康普茶</t>
+      <t>植物性蛋白飲</t>
     </r>
     <r>
       <rPr>
@@ -106,7 +123,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>450mL (</t>
+      <t>-TWK10</t>
     </r>
     <r>
       <rPr>
@@ -116,138 +133,20 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>微酵果香</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>經典茶香</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太康食堂 益菌多多口嚼錠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">優格飲 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>藍莓鮮奶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鳳梨綠茶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蜜桃烏龍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>草莓紅茶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
+      <t>益生菌添加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太康食堂-益菌多多口嚼錠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>養心齋-活氣靈芝多醣體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優格飲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -307,52 +206,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,7 +504,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -646,7 +512,7 @@
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -654,91 +520,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
     </row>
